--- a/data/KAHI_class_parent_2.xlsx
+++ b/data/KAHI_class_parent_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A402B1-1816-5D49-A722-8BF3A94692C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEED320-B61A-9545-9584-2D1705AE79FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="1160" windowWidth="26040" windowHeight="14940" xr2:uid="{E0B2117B-022C-9047-80A1-6E1C4D4DEB3B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Pre Baseline Phase</t>
   </si>
@@ -69,13 +69,19 @@
   </si>
   <si>
     <t>Not stressful</t>
+  </si>
+  <si>
+    <t>Moderately stressful</t>
+  </si>
+  <si>
+    <t>Very stressful</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,7 +432,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -434,7 +440,7 @@
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -448,52 +454,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/KAHI_class_parent_2.xlsx
+++ b/data/KAHI_class_parent_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEED320-B61A-9545-9584-2D1705AE79FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D33A09-20BA-6942-B789-8F5BEF44C898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1160" windowWidth="26040" windowHeight="14940" xr2:uid="{E0B2117B-022C-9047-80A1-6E1C4D4DEB3B}"/>
+    <workbookView xWindow="33320" yWindow="7580" windowWidth="26040" windowHeight="14940" xr2:uid="{E0B2117B-022C-9047-80A1-6E1C4D4DEB3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Pre Baseline Phase</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Very stressful</t>
+  </si>
+  <si>
+    <t>A little stressful</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,6 +464,9 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -469,6 +475,9 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -477,6 +486,9 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -485,6 +497,9 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -493,12 +508,18 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>

--- a/data/KAHI_class_parent_2.xlsx
+++ b/data/KAHI_class_parent_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D33A09-20BA-6942-B789-8F5BEF44C898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3549C243-1825-384B-BCC1-A6275FA58728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33320" yWindow="7580" windowWidth="26040" windowHeight="14940" xr2:uid="{E0B2117B-022C-9047-80A1-6E1C4D4DEB3B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Pre Baseline Phase</t>
   </si>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,7 +440,7 @@
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,6 +467,9 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -478,6 +481,9 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -489,6 +495,9 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -500,6 +509,9 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -511,6 +523,9 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -521,6 +536,9 @@
       </c>
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
